--- a/biology/Neurosciences/Syndrome_de_Balint/Syndrome_de_Balint.xlsx
+++ b/biology/Neurosciences/Syndrome_de_Balint/Syndrome_de_Balint.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Balint, décrit en 1909 par Rezső Bálint (en) sous le nom de « paralysie psychique du regard », est un syndrome médical. Il est également connu sous les noms d'apraxie oculomotrice, d'ataxie visuomotrice ou de simultanagnosie.
@@ -512,7 +524,9 @@
           <t>Caractéristiques du syndrome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le syndrome, dénommé sous son nom actuel en 1954, associe trois éléments sémiologiques cumulatifs :
 l'apraxie optique (paralysie dite psychique du regard : difficulté à fixer une cible et à se concentrer) ;
@@ -545,7 +559,9 @@
           <t>Causes et origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce syndrome est causé par une lésion souvent bilatérale du lobe pariétal postérieur ou de la jonction pariéto-occipitale.
 </t>
@@ -576,9 +592,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le peintre Francisco de Goya (1746-1828) en aurait été atteint, séquelles d'une encéphalite, expliquant partiellement la modification et l'évolution de son style tardif (petits tableaux avec moindres détails)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peintre Francisco de Goya (1746-1828) en aurait été atteint, séquelles d'une encéphalite, expliquant partiellement la modification et l'évolution de son style tardif (petits tableaux avec moindres détails).
 </t>
         </is>
       </c>
